--- a/web/templates/template.xlsx
+++ b/web/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipat\Documents\projects\htdocs\passport\web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD826F-845E-4143-81AD-9375098B25C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2622303B-77C4-4443-BC3B-D0D67EF3AE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7644A3DE-7B14-3D40-81D4-770E3FCD7270}"/>
+    <workbookView xWindow="-37995" yWindow="1830" windowWidth="37080" windowHeight="16725" activeTab="1" xr2:uid="{7644A3DE-7B14-3D40-81D4-770E3FCD7270}"/>
   </bookViews>
   <sheets>
     <sheet name="Организация" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Контингент" sheetId="3" r:id="rId3"/>
     <sheet name="Жилой объект" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="731">
   <si>
     <t>ID организации</t>
   </si>
   <si>
-    <t>Иднтификатор внешний</t>
-  </si>
-  <si>
     <t>Полное наименование организации</t>
   </si>
   <si>
@@ -333,15 +330,6 @@
     <t>Нежилая площадь, непригодная для проживания</t>
   </si>
   <si>
-    <t>Жилая и нежилая площадь, требующая капитального ремонта</t>
-  </si>
-  <si>
-    <t>Жилая и нежилая площадь, находящаяся в аварийном состоянии</t>
-  </si>
-  <si>
-    <t>Жилая и нежилая площадь, непригодная для проживания</t>
-  </si>
-  <si>
     <t>Площадь, непригодная к использованию по техническим причинам</t>
   </si>
   <si>
@@ -352,54 +340,6 @@
   </si>
   <si>
     <t>Общая площадь объектов, не используемых в уставной деятельности</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам среднего профессионального образования</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам бакалавриата</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам специалитета</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам магистратуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам аспирантуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по программам ординатуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на 6 и более кв.м. площади - обучающиеся по иным программам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего нанимателей - обучающихся, проживающих на 6 и более кв.м. площади </t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам среднего профессионального образования</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам бакалавриата</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам специалитета</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам магистратуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам аспирантуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по программам ординатуры</t>
-  </si>
-  <si>
-    <t>Наниматели, проживающие на площади &lt;6 кв.м. - обучающиеся по иным программам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего нанимателей - обучающихся, проживающие на площади &lt;6 кв.м. </t>
   </si>
   <si>
     <t>Всего нанимателей - обучающихся</t>
@@ -2687,437 +2627,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01764DB2-000F-F443-82FA-F711CEBC0BE1}">
-  <dimension ref="A1:EM1"/>
+  <dimension ref="A1:DP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView topLeftCell="CN1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DG1" sqref="DG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:143" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:120" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CA1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="CV1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CX1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CZ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DA1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DC1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="DG1" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DR1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3127,15 +2998,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FBFA7-3E7D-6145-B12C-461F05DF6379}">
-  <dimension ref="A1:RG1"/>
+  <dimension ref="A1:RF2"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:475" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:474" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,1411 +3026,1418 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="HT1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="HU1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="HV1" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HW1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="HX1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="HY1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="KM1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="KN1" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="KO1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="KP1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="KQ1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="KR1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="MQ1" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="MR1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="MS1" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="MT1" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="MU1" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="MV1" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="OL1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="OM1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="ON1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="OO1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="OP1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="OQ1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="OR1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="OS1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="OT1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="OU1" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="OV1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="OW1" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="OX1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="OY1" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="OZ1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="PA1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="PB1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="PC1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="PD1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="PE1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="PF1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="PG1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="PH1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="PI1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="PJ1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="PK1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="PL1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="PM1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="PN1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="PO1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="PP1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="PQ1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="PR1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="QD1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="QN1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="QO1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="QP1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="QR1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="QS1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="QU1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="QV1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="QW1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="QX1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="QY1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="QZ1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="RA1" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="RB1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="RC1" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="RD1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="RE1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="RF1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="HU1" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="HV1" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="HW1" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="HX1" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="HY1" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="HZ1" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="KN1" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="KO1" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="KP1" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="KQ1" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="KR1" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="KS1" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="MR1" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="MS1" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="MT1" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="MU1" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="MV1" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="MW1" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="NT1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="NU1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="NV1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="NW1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="NX1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="NY1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="NZ1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="OA1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="OB1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="OC1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="OD1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="OE1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="OF1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="OG1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="OH1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="OI1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="OJ1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="OK1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="OL1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="OM1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="ON1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="OO1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="OP1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="OQ1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="OR1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="OS1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="OT1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="OU1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="OV1" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="OW1" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="OX1" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="OY1" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="OZ1" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="PA1" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="PB1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="PC1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="PD1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="PE1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="PF1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="PG1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="PH1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="PI1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="PJ1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="PK1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="PL1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="PM1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="PN1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="PO1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="PP1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="PQ1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="PR1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="PS1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="PT1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="PU1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="PV1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="PW1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="PX1" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="PY1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="PZ1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="QA1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="QB1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="QC1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="QD1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="QE1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="QF1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="QG1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="QH1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="QI1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="QJ1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="QK1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="QL1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="QM1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="QN1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="QO1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="QP1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="QQ1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="QR1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="QS1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="QT1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="QU1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="QV1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="QW1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="QX1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="QY1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="QZ1" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="RA1" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="RB1" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="RC1" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="RD1" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="RE1" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="RF1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="RG1" s="1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:474" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>SUM(G2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUM(N2:S2)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4579,106 +4457,106 @@
   <sheetData>
     <row r="1" spans="1:34" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AF1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AG1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -4698,418 +4576,418 @@
   <sheetData>
     <row r="1" spans="1:138" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AU1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AV1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="BE1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="BS1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="CA1" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="CD1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="CH1" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="CI1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="CL1" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="CM1" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CN1" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="CP1" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CR1" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CS1" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CT1" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CU1" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CV1" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CW1" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CX1" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CY1" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG1" s="1" t="s">
+      <c r="DA1" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="DB1" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="DC1" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="DD1" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="DE1" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="DN1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DS1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DX1" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="EC1" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="ED1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="DP1" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="DT1" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="DU1" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="DV1" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="DW1" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="DY1" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="DZ1" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="EA1" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="EB1" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="ED1" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="EE1" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="EF1" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="EG1" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>
